--- a/ru/downloads/data-excel/3.3.2.xlsx
+++ b/ru/downloads/data-excel/3.3.2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D212D54-FEE1-4D3C-B7C8-3C8D60FFC94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="480" windowWidth="14580" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="480" windowWidth="14580" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -146,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -368,8 +367,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 6" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -460,23 +459,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -512,23 +494,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -704,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +687,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -744,7 +709,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -757,7 +722,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -806,8 +771,11 @@
       <c r="P3" s="16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -856,8 +824,11 @@
       <c r="P4" s="34">
         <v>78.928028510736837</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="34">
+        <v>53.463696812512026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -906,8 +877,11 @@
       <c r="P5" s="31">
         <v>66.863516959508374</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="31">
+        <v>46.05204738706685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -956,8 +930,11 @@
       <c r="P6" s="32">
         <v>91.178104768980091</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="32">
+        <v>60.76705279190513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1006,8 +983,11 @@
       <c r="P7" s="32">
         <v>55.906408530903825</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="32">
+        <v>46.609654277955656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1056,8 +1036,11 @@
       <c r="P8" s="32">
         <v>45.27925404347576</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="32">
+        <v>39.785591828762811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1106,8 +1089,11 @@
       <c r="P9" s="32">
         <v>66.139521135087193</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="32">
+        <v>53.693996785869842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
@@ -1156,8 +1142,11 @@
       <c r="P10" s="31">
         <v>68.971589575017617</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="31">
+        <v>49.132459991853935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1206,8 +1195,11 @@
       <c r="P11" s="31">
         <v>67.445157733055012</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="31">
+        <v>42.132308166831223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1256,8 +1248,11 @@
       <c r="P12" s="32">
         <v>70.478671695765442</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="32">
+        <v>56.225753650646354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1301,11 @@
       <c r="P13" s="32">
         <v>50.313750869839545</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="32">
+        <v>28.457427087863305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1356,8 +1354,11 @@
       <c r="P14" s="32">
         <v>37.584717164899914</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="32">
+        <v>20.524708126577082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1406,8 +1407,11 @@
       <c r="P15" s="32">
         <v>63.145201372084124</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="32">
+        <v>36.325895173845353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
@@ -1456,8 +1460,11 @@
       <c r="P16" s="32">
         <v>55.837827527008514</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="32">
+        <v>37.816151622141014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1506,8 +1513,11 @@
       <c r="P17" s="32">
         <v>48.742238328353146</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="32">
+        <v>29.032279844170926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1556,8 +1566,11 @@
       <c r="P18" s="32">
         <v>62.681401338111655</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="32">
+        <v>46.928626462141906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -1606,8 +1619,11 @@
       <c r="P19" s="32">
         <v>75.869510346446162</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="32">
+        <v>51.38232216208695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1656,8 +1672,11 @@
       <c r="P20" s="31">
         <v>70.149044331210945</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="31">
+        <v>45.862881450184311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1706,8 +1725,11 @@
       <c r="P21" s="32">
         <v>81.465086808495727</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="32">
+        <v>57.0280888993139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
@@ -1756,8 +1778,11 @@
       <c r="P22" s="32">
         <v>56.142519103528315</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="32">
+        <v>44.951834666409091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1806,8 +1831,11 @@
       <c r="P23" s="32">
         <v>44.202937208965572</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="32">
+        <v>38.216466887636237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1856,8 +1884,11 @@
       <c r="P24" s="32">
         <v>67.817830872763324</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="32">
+        <v>51.83682668469686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -1906,8 +1937,11 @@
       <c r="P25" s="32">
         <v>119.19929216872222</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="32">
+        <v>82.176148450436926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1956,8 +1990,11 @@
       <c r="P26" s="31">
         <v>93.086319420833092</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="31">
+        <v>66.965035434789911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2006,8 +2043,11 @@
       <c r="P27" s="31">
         <v>146.10358402344494</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="31">
+        <v>96.931980629894966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2056,8 +2096,11 @@
       <c r="P28" s="32">
         <v>95.331449768398386</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="32">
+        <v>56.391242440049062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2106,8 +2149,11 @@
       <c r="P29" s="31">
         <v>69.840615031654437</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="31">
+        <v>50.844030930786069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2156,8 +2202,11 @@
       <c r="P30" s="32">
         <v>124.20756190394205</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="32">
+        <v>61.300998533028128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
@@ -2206,8 +2255,11 @@
       <c r="P31" s="31">
         <v>79.086776494887133</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="31">
+        <v>54.829571415516767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -2256,8 +2308,11 @@
       <c r="P32" s="31">
         <v>76.750352036738676</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="31">
+        <v>58.407045187583961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2305,6 +2360,9 @@
       </c>
       <c r="P33" s="33">
         <v>81.569917553711434</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>51.452932817170577</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/3.3.2.xlsx
+++ b/ru/downloads/data-excel/3.3.2.xlsx
@@ -673,10 +673,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +687,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -722,7 +722,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -774,8 +774,11 @@
       <c r="Q3" s="16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -827,8 +830,11 @@
       <c r="Q4" s="34">
         <v>53.463696812512026</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="34">
+        <v>58.14349653559799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -880,8 +886,11 @@
       <c r="Q5" s="31">
         <v>46.05204738706685</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="31">
+        <v>50.405857641278807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -933,8 +942,11 @@
       <c r="Q6" s="32">
         <v>60.76705279190513</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="32">
+        <v>65.995789757646122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
@@ -986,8 +998,11 @@
       <c r="Q7" s="32">
         <v>46.609654277955656</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="32">
+        <v>47.339416388110941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1039,8 +1054,11 @@
       <c r="Q8" s="32">
         <v>39.785591828762811</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="32">
+        <v>44.18457369250482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1092,8 +1110,11 @@
       <c r="Q9" s="32">
         <v>53.693996785869842</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="32">
+        <v>50.379263611270765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
@@ -1145,8 +1166,11 @@
       <c r="Q10" s="31">
         <v>49.132459991853935</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="31">
+        <v>54.819947539591084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1198,8 +1222,11 @@
       <c r="Q11" s="31">
         <v>42.132308166831223</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="31">
+        <v>47.679920417302263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1251,8 +1278,11 @@
       <c r="Q12" s="32">
         <v>56.225753650646354</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="32">
+        <v>61.861274529713718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -1304,8 +1334,11 @@
       <c r="Q13" s="32">
         <v>28.457427087863305</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="32">
+        <v>36.712395096811576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1357,8 +1390,11 @@
       <c r="Q14" s="32">
         <v>20.524708126577082</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="32">
+        <v>26.872053459579295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1410,8 +1446,11 @@
       <c r="Q15" s="32">
         <v>36.325895173845353</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="32">
+        <v>46.638444428499682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
@@ -1463,8 +1502,11 @@
       <c r="Q16" s="32">
         <v>37.816151622141014</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="32">
+        <v>51.155081745820631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1516,8 +1558,11 @@
       <c r="Q17" s="32">
         <v>29.032279844170926</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="32">
+        <v>43.08338023862634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1569,8 +1614,11 @@
       <c r="Q18" s="32">
         <v>46.928626462141906</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="32">
+        <v>58.934228062068456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -1622,8 +1670,11 @@
       <c r="Q19" s="32">
         <v>51.38232216208695</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="32">
+        <v>54.51979816984521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1675,8 +1726,11 @@
       <c r="Q20" s="31">
         <v>45.862881450184311</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="31">
+        <v>52.474443936678909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1728,8 +1782,11 @@
       <c r="Q21" s="32">
         <v>57.0280888993139</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="32">
+        <v>56.519551395440942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
@@ -1781,8 +1838,11 @@
       <c r="Q22" s="32">
         <v>44.951834666409091</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="32">
+        <v>46.970408642555192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1834,8 +1894,11 @@
       <c r="Q23" s="32">
         <v>38.216466887636237</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="32">
+        <v>27.43769048802011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1887,8 +1950,11 @@
       <c r="Q24" s="32">
         <v>51.83682668469686</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="32">
+        <v>66.104415920267911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +2006,11 @@
       <c r="Q25" s="32">
         <v>82.176148450436926</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="32">
+        <v>88.246666265390886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1993,8 +2062,11 @@
       <c r="Q26" s="31">
         <v>66.965035434789911</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="31">
+        <v>71.914698721605745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2046,8 +2118,11 @@
       <c r="Q27" s="31">
         <v>96.931980629894966</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="31">
+        <v>105.10059183863845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2099,8 +2174,11 @@
       <c r="Q28" s="32">
         <v>56.391242440049062</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="32">
+        <v>63.980940123966526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2152,8 +2230,11 @@
       <c r="Q29" s="31">
         <v>50.844030930786069</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="31">
+        <v>55.546587096180644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2205,8 +2286,11 @@
       <c r="Q30" s="32">
         <v>61.300998533028128</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="32">
+        <v>73.505198287622903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
@@ -2258,8 +2342,11 @@
       <c r="Q31" s="31">
         <v>54.829571415516767</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="31">
+        <v>43.916363725083563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -2311,8 +2398,11 @@
       <c r="Q32" s="31">
         <v>58.407045187583961</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="31">
+        <v>40.980198843051781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2363,6 +2453,9 @@
       </c>
       <c r="Q33" s="33">
         <v>51.452932817170577</v>
+      </c>
+      <c r="R33" s="33">
+        <v>47.015458682814909</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/3.3.2.xlsx
+++ b/ru/downloads/data-excel/3.3.2.xlsx
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -364,6 +364,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -673,10 +674,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +688,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -722,7 +723,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -777,8 +778,11 @@
       <c r="R3" s="16">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -833,8 +837,11 @@
       <c r="R4" s="34">
         <v>58.14349653559799</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="34">
+        <v>57.890663775669807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -889,8 +896,11 @@
       <c r="R5" s="31">
         <v>50.405857641278807</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="31">
+        <v>50.022742766269019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -945,8 +955,11 @@
       <c r="R6" s="32">
         <v>65.995789757646122</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="32">
+        <v>65.935557126462314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1014,11 @@
       <c r="R7" s="32">
         <v>47.339416388110941</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="35">
+        <v>41.756312988336546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1057,8 +1073,11 @@
       <c r="R8" s="32">
         <v>44.18457369250482</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="32">
+        <v>37.159844500343013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1113,8 +1132,11 @@
       <c r="R9" s="32">
         <v>50.379263611270765</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="32">
+        <v>46.265141318977122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
@@ -1169,8 +1191,11 @@
       <c r="R10" s="31">
         <v>54.819947539591084</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="34">
+        <v>54.165137501740752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1225,8 +1250,11 @@
       <c r="R11" s="31">
         <v>47.679920417302263</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="31">
+        <v>47.516379220948068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1281,8 +1309,11 @@
       <c r="R12" s="32">
         <v>61.861274529713718</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="32">
+        <v>60.737168699398438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -1337,8 +1368,11 @@
       <c r="R13" s="32">
         <v>36.712395096811576</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="35">
+        <v>38.800251455475774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1393,8 +1427,11 @@
       <c r="R14" s="32">
         <v>26.872053459579295</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="32">
+        <v>28.662467801253705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1449,8 +1486,11 @@
       <c r="R15" s="32">
         <v>46.638444428499682</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="32">
+        <v>48.983865238282192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
@@ -1505,8 +1545,11 @@
       <c r="R16" s="32">
         <v>51.155081745820631</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="35">
+        <v>52.046737970697684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1561,8 +1604,11 @@
       <c r="R17" s="32">
         <v>43.08338023862634</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="32">
+        <v>42.039438248006412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1617,8 +1663,11 @@
       <c r="R18" s="32">
         <v>58.934228062068456</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="32">
+        <v>61.864439546842981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -1673,8 +1722,11 @@
       <c r="R19" s="32">
         <v>54.51979816984521</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="35">
+        <v>54.559895023999445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1729,8 +1781,11 @@
       <c r="R20" s="31">
         <v>52.474443936678909</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="31">
+        <v>48.115700180781531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1785,8 +1840,11 @@
       <c r="R21" s="32">
         <v>56.519551395440942</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="32">
+        <v>60.917884338341217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
@@ -1841,8 +1899,11 @@
       <c r="R22" s="32">
         <v>46.970408642555192</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="35">
+        <v>44.498872817808376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1897,8 +1958,11 @@
       <c r="R23" s="32">
         <v>27.43769048802011</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="32">
+        <v>40.811480640517637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1953,8 +2017,11 @@
       <c r="R24" s="32">
         <v>66.104415920267911</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="32">
+        <v>48.122142747774355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -2009,8 +2076,11 @@
       <c r="R25" s="32">
         <v>88.246666265390886</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="35">
+        <v>86.286397363931727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2065,8 +2135,11 @@
       <c r="R26" s="31">
         <v>71.914698721605745</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="31">
+        <v>68.335423960459067</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2194,11 @@
       <c r="R27" s="31">
         <v>105.10059183863845</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="31">
+        <v>104.46468013142454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2177,8 +2253,11 @@
       <c r="R28" s="32">
         <v>63.980940123966526</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="35">
+        <v>63.925654994479551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2233,8 +2312,11 @@
       <c r="R29" s="31">
         <v>55.546587096180644</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="31">
+        <v>57.785410559676791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2371,11 @@
       <c r="R30" s="32">
         <v>73.505198287622903</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="32">
+        <v>71.340059495655098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
@@ -2345,8 +2430,11 @@
       <c r="R31" s="31">
         <v>43.916363725083563</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="34">
+        <v>50.853410128538314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -2401,8 +2489,11 @@
       <c r="R32" s="31">
         <v>40.980198843051781</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="31">
+        <v>51.223021582733814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2456,6 +2547,9 @@
       </c>
       <c r="R33" s="33">
         <v>47.015458682814909</v>
+      </c>
+      <c r="S33" s="33">
+        <v>50.500891999451071</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/3.3.2.xlsx
+++ b/ru/downloads/data-excel/3.3.2.xlsx
@@ -674,11 +674,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -688,7 +686,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -710,7 +708,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -723,7 +721,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -781,8 +779,11 @@
       <c r="S3" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -840,8 +841,11 @@
       <c r="S4" s="34">
         <v>57.890663775669807</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="34">
+        <v>52.734251206028382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -899,8 +903,11 @@
       <c r="S5" s="31">
         <v>50.022742766269019</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="31">
+        <v>44.646801162600475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -958,8 +965,11 @@
       <c r="S6" s="32">
         <v>65.935557126462314</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="32">
+        <v>60.998061560200554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1017,8 +1027,11 @@
       <c r="S7" s="35">
         <v>41.756312988336546</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="35">
+        <v>41.931627189714625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="S8" s="32">
         <v>37.159844500343013</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="32">
+        <v>38.177163051511151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1135,8 +1151,11 @@
       <c r="S9" s="32">
         <v>46.265141318977122</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="32">
+        <v>45.607453560981966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
@@ -1194,8 +1213,11 @@
       <c r="S10" s="34">
         <v>54.165137501740752</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="34">
+        <v>50.172884880431361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1253,8 +1275,11 @@
       <c r="S11" s="31">
         <v>47.516379220948068</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="31">
+        <v>44.112367891063748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1312,8 +1337,11 @@
       <c r="S12" s="32">
         <v>60.737168699398438</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="32">
+        <v>56.155144351753421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1399,11 @@
       <c r="S13" s="35">
         <v>38.800251455475774</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="35">
+        <v>37.12775271808399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1430,8 +1461,11 @@
       <c r="S14" s="32">
         <v>28.662467801253705</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="32">
+        <v>26.579446704517768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1489,8 +1523,11 @@
       <c r="S15" s="32">
         <v>48.983865238282192</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="32">
+        <v>47.691579663423148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
@@ -1548,8 +1585,11 @@
       <c r="S16" s="35">
         <v>52.046737970697684</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="35">
+        <v>49.966474107695483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1607,8 +1647,11 @@
       <c r="S17" s="32">
         <v>42.039438248006412</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="32">
+        <v>44.339536521432947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1666,8 +1709,11 @@
       <c r="S18" s="32">
         <v>61.864439546842981</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="32">
+        <v>55.468421253968863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -1725,8 +1771,11 @@
       <c r="S19" s="35">
         <v>54.559895023999445</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="35">
+        <v>45.077411133103766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1784,8 +1833,11 @@
       <c r="S20" s="31">
         <v>48.115700180781531</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="31">
+        <v>42.341975649266388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1843,8 +1895,11 @@
       <c r="S21" s="32">
         <v>60.917884338341217</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="32">
+        <v>47.772457765110225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
@@ -1902,8 +1957,11 @@
       <c r="S22" s="35">
         <v>44.498872817808376</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="35">
+        <v>46.127136558116561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1961,8 +2019,11 @@
       <c r="S23" s="32">
         <v>40.811480640517637</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="32">
+        <v>38.861148383596195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2020,8 +2081,11 @@
       <c r="S24" s="32">
         <v>48.122142747774355</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="32">
+        <v>53.259250196123595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -2079,8 +2143,11 @@
       <c r="S25" s="35">
         <v>86.286397363931727</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="35">
+        <v>77.010722119335071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2138,8 +2205,11 @@
       <c r="S26" s="31">
         <v>68.335423960459067</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="31">
+        <v>59.189709472566221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2197,8 +2267,11 @@
       <c r="S27" s="31">
         <v>104.46468013142454</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="31">
+        <v>95.060584781341987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2256,8 +2329,11 @@
       <c r="S28" s="35">
         <v>63.925654994479551</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="35">
+        <v>61.976853895626128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2315,8 +2391,11 @@
       <c r="S29" s="31">
         <v>57.785410559676791</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="31">
+        <v>48.390234028455353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2453,11 @@
       <c r="S30" s="32">
         <v>71.340059495655098</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="32">
+        <v>78.407224173903401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
@@ -2433,8 +2515,11 @@
       <c r="S31" s="34">
         <v>50.853410128538314</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="34">
+        <v>39.559787476030614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -2492,8 +2577,11 @@
       <c r="S32" s="31">
         <v>51.223021582733814</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="31">
+        <v>41.059215262778977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2550,6 +2638,9 @@
       </c>
       <c r="S33" s="33">
         <v>50.500891999451071</v>
+      </c>
+      <c r="T33" s="33">
+        <v>38.128175110356899</v>
       </c>
     </row>
   </sheetData>
